--- a/data/trans_orig/P36BPD04_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD04_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>44105</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30393</v>
+        <v>31205</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>63218</v>
+        <v>60092</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.08843308458348201</v>
+        <v>0.08843308458348202</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06093926993098884</v>
+        <v>0.06256789856959691</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1267549207808419</v>
+        <v>0.1204886264331287</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>50</v>
@@ -762,19 +762,19 @@
         <v>43072</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>32263</v>
+        <v>30696</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>58616</v>
+        <v>56844</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06913568039075103</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05178531070827646</v>
+        <v>0.04926994597307074</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09408472362904749</v>
+        <v>0.09124096309094859</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>86</v>
@@ -783,19 +783,19 @@
         <v>87177</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>69129</v>
+        <v>68252</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>107578</v>
+        <v>108244</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07771545853343208</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06162602570462489</v>
+        <v>0.06084389453320015</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09590193755995029</v>
+        <v>0.09649515297304069</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>94325</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>75954</v>
+        <v>77311</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>113668</v>
+        <v>117488</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1891269271134315</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1522916393537631</v>
+        <v>0.1550138292872481</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2279114498599921</v>
+        <v>0.2355704292729657</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>140</v>
@@ -833,19 +833,19 @@
         <v>111816</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>94612</v>
+        <v>95974</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>132206</v>
+        <v>131865</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1794764999835967</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1518626102536607</v>
+        <v>0.1540476861346474</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2122052532937584</v>
+        <v>0.2116564786842337</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>228</v>
@@ -854,19 +854,19 @@
         <v>206141</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>182349</v>
+        <v>179521</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>236005</v>
+        <v>234515</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1837671560184266</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1625576299042176</v>
+        <v>0.160036094260307</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2103894254716706</v>
+        <v>0.2090618533932316</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>294058</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>267912</v>
+        <v>268379</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>318666</v>
+        <v>317197</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5896039345252391</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5371788464222694</v>
+        <v>0.5381156968266468</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6389438263601714</v>
+        <v>0.6359974796775909</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>521</v>
@@ -904,19 +904,19 @@
         <v>367954</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>343745</v>
+        <v>345090</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>389351</v>
+        <v>391365</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5906056787051274</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5517466688918228</v>
+        <v>0.5539052163062335</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6249491248097131</v>
+        <v>0.6281816920279431</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>798</v>
@@ -925,19 +925,19 @@
         <v>662013</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>629358</v>
+        <v>627402</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>694683</v>
+        <v>693713</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.5901602953399179</v>
+        <v>0.5901602953399181</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5610494470390038</v>
+        <v>0.5593060907317783</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6192849074803604</v>
+        <v>0.6184196235046823</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>66251</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>50775</v>
+        <v>49998</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>89534</v>
+        <v>87291</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1328360537778475</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1018065172224384</v>
+        <v>0.1002484613974963</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1795198616114316</v>
+        <v>0.1750224314642809</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>149</v>
@@ -975,19 +975,19 @@
         <v>100169</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>84987</v>
+        <v>85479</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>116808</v>
+        <v>117606</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1607821409205248</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1364128572571759</v>
+        <v>0.1372025100496504</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1874895904439478</v>
+        <v>0.1887699194359179</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>203</v>
@@ -996,19 +996,19 @@
         <v>166420</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>142642</v>
+        <v>143837</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>193747</v>
+        <v>192490</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1483570901082233</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1271598275314237</v>
+        <v>0.1282257188754625</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1727181893967363</v>
+        <v>0.1715974771537703</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>41400</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>28768</v>
+        <v>29569</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>58627</v>
+        <v>59878</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04311867005394757</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0299628859806624</v>
+        <v>0.03079697744756736</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06106126798390944</v>
+        <v>0.06236415180315535</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>64</v>
@@ -1121,19 +1121,19 @@
         <v>48806</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>37021</v>
+        <v>38349</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>62065</v>
+        <v>62900</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.04376048085688313</v>
+        <v>0.04376048085688312</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03319350862117416</v>
+        <v>0.03438412927029742</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05564875899521317</v>
+        <v>0.05639664063941235</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>98</v>
@@ -1142,19 +1142,19 @@
         <v>90206</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>71679</v>
+        <v>72745</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>111266</v>
+        <v>112429</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04346356769211859</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03453668176015135</v>
+        <v>0.03505026111932338</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05361082432630251</v>
+        <v>0.05417132324546996</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>161258</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>137119</v>
+        <v>137572</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>187997</v>
+        <v>190356</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1679529269781107</v>
+        <v>0.1679529269781106</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1428121903694402</v>
+        <v>0.1432832991404959</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1958027449950841</v>
+        <v>0.1982594926676009</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>211</v>
@@ -1192,19 +1192,19 @@
         <v>156552</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>136228</v>
+        <v>135343</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>178320</v>
+        <v>179056</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1403665087558711</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1221441429717588</v>
+        <v>0.1213505390020772</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1598846763222454</v>
+        <v>0.160544331719798</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>361</v>
@@ -1213,19 +1213,19 @@
         <v>317809</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>285776</v>
+        <v>284804</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>352579</v>
+        <v>350692</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.153128479575651</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1376939109554273</v>
+        <v>0.1372254759936754</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.169881636332038</v>
+        <v>0.1689723659559292</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>612536</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>579645</v>
+        <v>578811</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>644684</v>
+        <v>644759</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6379677297223284</v>
+        <v>0.6379677297223285</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6037106153950136</v>
+        <v>0.6028416269476238</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6714502346091478</v>
+        <v>0.67152853428388</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1074</v>
@@ -1263,19 +1263,19 @@
         <v>741757</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>712726</v>
+        <v>715992</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>771344</v>
+        <v>769309</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6650705630125126</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.639041049652725</v>
+        <v>0.6419694168246496</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6915983457970137</v>
+        <v>0.6897738880670297</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1667</v>
@@ -1284,19 +1284,19 @@
         <v>1354293</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1311562</v>
+        <v>1310369</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1400505</v>
+        <v>1396274</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6525323072376529</v>
+        <v>0.6525323072376528</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6319433191338361</v>
+        <v>0.63136888167288</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6747983450785293</v>
+        <v>0.6727596791675037</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>144943</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>121969</v>
+        <v>122003</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>174852</v>
+        <v>171837</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1509606732456134</v>
+        <v>0.1509606732456133</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1270325270755771</v>
+        <v>0.1270684225686174</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.18211195332616</v>
+        <v>0.1789709523599288</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>257</v>
@@ -1334,19 +1334,19 @@
         <v>168191</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>148942</v>
+        <v>149424</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>190150</v>
+        <v>188555</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1508024473747332</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1335440589960783</v>
+        <v>0.1339760336210975</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1704915917617731</v>
+        <v>0.1690614642097177</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>390</v>
@@ -1355,19 +1355,19 @@
         <v>313134</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>280670</v>
+        <v>284189</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>345652</v>
+        <v>347117</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1508756454945775</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1352340280612548</v>
+        <v>0.1369295929790958</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1665438679292778</v>
+        <v>0.1672497598076283</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>63897</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>49057</v>
+        <v>47351</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>83427</v>
+        <v>84966</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0610585951233024</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04687854023388018</v>
+        <v>0.04524751511971829</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07972123408124582</v>
+        <v>0.08119271024436016</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>59</v>
@@ -1480,19 +1480,19 @@
         <v>47514</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>36811</v>
+        <v>36763</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>63072</v>
+        <v>61928</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0453775793707132</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03515561697512569</v>
+        <v>0.03511005326443218</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06023605157076145</v>
+        <v>0.05914346281908066</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>113</v>
@@ -1501,19 +1501,19 @@
         <v>111411</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>91139</v>
+        <v>87900</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>134295</v>
+        <v>134474</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05321582918097745</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04353278553641867</v>
+        <v>0.04198596837812156</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06414666965637973</v>
+        <v>0.06423223259546594</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>227387</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>195709</v>
+        <v>199112</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>253703</v>
+        <v>257709</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2172881081130685</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1870170419273002</v>
+        <v>0.1902686745947519</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2424352994071263</v>
+        <v>0.24626330307568</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>302</v>
@@ -1551,19 +1551,19 @@
         <v>200918</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>181576</v>
+        <v>178313</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>226088</v>
+        <v>223503</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1918837352246523</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.173411124696497</v>
+        <v>0.1702951403573281</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2159218206208179</v>
+        <v>0.2134531649316915</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>519</v>
@@ -1572,19 +1572,19 @@
         <v>428305</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>392355</v>
+        <v>392424</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>465265</v>
+        <v>466803</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.20458226343955</v>
+        <v>0.2045822634395501</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1874104610031576</v>
+        <v>0.187443089203983</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2222363475164389</v>
+        <v>0.2229707571036376</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>569838</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>536892</v>
+        <v>530299</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>606331</v>
+        <v>603519</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.5445287045065594</v>
+        <v>0.5445287045065595</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5130459980916839</v>
+        <v>0.5067460994086376</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.579401303668835</v>
+        <v>0.576714242424907</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>876</v>
@@ -1622,19 +1622,19 @@
         <v>610852</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>582808</v>
+        <v>583467</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>639784</v>
+        <v>637492</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.5833852239481935</v>
+        <v>0.5833852239481936</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5566024285101902</v>
+        <v>0.5572312188367522</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6110163889613268</v>
+        <v>0.6088268257877412</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1452</v>
@@ -1643,19 +1643,19 @@
         <v>1180690</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1132832</v>
+        <v>1134286</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1225575</v>
+        <v>1225972</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.5639625595655862</v>
+        <v>0.5639625595655863</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5411027379201307</v>
+        <v>0.5417976119771565</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5854019974281517</v>
+        <v>0.5855919255822571</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>185357</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>160882</v>
+        <v>158876</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>215966</v>
+        <v>213994</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1771245922570697</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1537368050432017</v>
+        <v>0.15181967681106</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2063738306446414</v>
+        <v>0.2044895696787369</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>278</v>
@@ -1693,19 +1693,19 @@
         <v>187798</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>168350</v>
+        <v>167437</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>210744</v>
+        <v>210474</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.179353461456441</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.160779697629995</v>
+        <v>0.1599083920146402</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2012683732506323</v>
+        <v>0.2010102547540814</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>460</v>
@@ -1714,19 +1714,19 @@
         <v>373155</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>338406</v>
+        <v>340304</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>410823</v>
+        <v>409484</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1782393478138862</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1616415323878955</v>
+        <v>0.1625481640487831</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1962316138488617</v>
+        <v>0.1955923025678704</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>55049</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>39639</v>
+        <v>40594</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>75486</v>
+        <v>76050</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.05640655224697299</v>
+        <v>0.05640655224697298</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04061675180051789</v>
+        <v>0.04159572754491916</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0773483222892202</v>
+        <v>0.07792564259222406</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>68</v>
@@ -1839,19 +1839,19 @@
         <v>57824</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>44944</v>
+        <v>44502</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>74143</v>
+        <v>74043</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.06373301707428493</v>
+        <v>0.06373301707428491</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04953694056946662</v>
+        <v>0.04904955877721294</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08172017607705713</v>
+        <v>0.08161041802981579</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>113</v>
@@ -1860,19 +1860,19 @@
         <v>112872</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>91275</v>
+        <v>90851</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>135342</v>
+        <v>138229</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0599362463132939</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04846781319211506</v>
+        <v>0.04824292670247646</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07186774769554981</v>
+        <v>0.07340073252258564</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>146435</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>122390</v>
+        <v>120284</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>176075</v>
+        <v>173031</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1500466821391325</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1254085485750422</v>
+        <v>0.1232512012259459</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1804179849598152</v>
+        <v>0.1772990334295085</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>130</v>
@@ -1910,19 +1910,19 @@
         <v>101433</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>84729</v>
+        <v>86207</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>120868</v>
+        <v>121588</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1117987813667715</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09338763231230075</v>
+        <v>0.09501733731248739</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1332198450116149</v>
+        <v>0.1340142095506656</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>256</v>
@@ -1931,19 +1931,19 @@
         <v>247868</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>216556</v>
+        <v>216608</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>281239</v>
+        <v>282983</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1316198703564345</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1149929678301194</v>
+        <v>0.115020912876722</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1493403462092668</v>
+        <v>0.1502665283406393</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>460742</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>426415</v>
+        <v>424758</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>497760</v>
+        <v>492697</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4721065340184652</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4369325390105148</v>
+        <v>0.4352340509073025</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.510037146342035</v>
+        <v>0.5048495743583148</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>677</v>
@@ -1981,19 +1981,19 @@
         <v>448611</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>421637</v>
+        <v>421429</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>474586</v>
+        <v>475266</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.4944580089887105</v>
+        <v>0.4944580089887103</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4647270930391354</v>
+        <v>0.4644974624258642</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.523087628639503</v>
+        <v>0.523837045465958</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1149</v>
@@ -2002,19 +2002,19 @@
         <v>909354</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>866420</v>
+        <v>864622</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>954819</v>
+        <v>952815</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4828748746077615</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4600767687951647</v>
+        <v>0.459121734541899</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5070170308998357</v>
+        <v>0.5059531049837469</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>313703</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>283019</v>
+        <v>281431</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>349200</v>
+        <v>344747</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3214402315954293</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2900000319213696</v>
+        <v>0.2883722721724978</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3578129553163577</v>
+        <v>0.3532502728013395</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>443</v>
@@ -2052,19 +2052,19 @@
         <v>299411</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>274636</v>
+        <v>273481</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>327751</v>
+        <v>326116</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3300101925702332</v>
+        <v>0.3300101925702331</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3027023693743831</v>
+        <v>0.3014299521227373</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3612457284899937</v>
+        <v>0.3594442081623235</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>747</v>
@@ -2073,19 +2073,19 @@
         <v>613114</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>579157</v>
+        <v>575968</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>654804</v>
+        <v>656288</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.32556900872251</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3075371928666986</v>
+        <v>0.3058439603416106</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3477066270653311</v>
+        <v>0.3484946762474576</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>204450</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>175051</v>
+        <v>174806</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>239388</v>
+        <v>237427</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05872838914058277</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05028352500060851</v>
+        <v>0.05021318076831709</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0687641959031461</v>
+        <v>0.06820106324437288</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>241</v>
@@ -2198,19 +2198,19 @@
         <v>197216</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>170324</v>
+        <v>173114</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>227528</v>
+        <v>225016</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05340739355392855</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04612468657245772</v>
+        <v>0.04688024715109544</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06161588363118763</v>
+        <v>0.06093578644760244</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>410</v>
@@ -2219,19 +2219,19 @@
         <v>401667</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>364408</v>
+        <v>363300</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>444316</v>
+        <v>448350</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05598949483873468</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0507959401278673</v>
+        <v>0.05064150463754057</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06193448415272617</v>
+        <v>0.06249686835048439</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>629405</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>576147</v>
+        <v>577225</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>681157</v>
+        <v>681680</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1807968424892629</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1654985225198738</v>
+        <v>0.165807957646071</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1956626229209078</v>
+        <v>0.1958127747686524</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>783</v>
@@ -2269,19 +2269,19 @@
         <v>570718</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>526592</v>
+        <v>529975</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>613766</v>
+        <v>609348</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.154553999750104</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1426043017251008</v>
+        <v>0.1435204434073894</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1662114642881464</v>
+        <v>0.165015159056468</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1364</v>
@@ -2290,19 +2290,19 @@
         <v>1200123</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1142339</v>
+        <v>1135427</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1264637</v>
+        <v>1261706</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1672887740701021</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1592339950983385</v>
+        <v>0.1582704745595931</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1762814915729894</v>
+        <v>0.1758729543735165</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>1937175</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1871819</v>
+        <v>1873615</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2004261</v>
+        <v>2001539</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5564542232839836</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5376806536859465</v>
+        <v>0.538196513325101</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5757245420116902</v>
+        <v>0.5749427487875347</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3148</v>
@@ -2340,19 +2340,19 @@
         <v>2169175</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2111699</v>
+        <v>2115862</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2221047</v>
+        <v>2224285</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5874258461395988</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5718609143851145</v>
+        <v>0.5729883291734431</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6014731750307218</v>
+        <v>0.602349880965902</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5066</v>
@@ -2361,19 +2361,19 @@
         <v>4106350</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4022863</v>
+        <v>4022843</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4202886</v>
+        <v>4193091</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.5723963529055516</v>
+        <v>0.5723963529055517</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5607588288361751</v>
+        <v>0.560756089248804</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5858527779533746</v>
+        <v>0.5844874106055454</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>710253</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>657056</v>
+        <v>659096</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>763096</v>
+        <v>762339</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2040205450861707</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1887396317174086</v>
+        <v>0.1893254506937033</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2191994952665011</v>
+        <v>0.2189821028826427</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1127</v>
@@ -2411,19 +2411,19 @@
         <v>755569</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>713394</v>
+        <v>711635</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>800874</v>
+        <v>798019</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2046127605563687</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1931913412884002</v>
+        <v>0.1927151913475535</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2168814553077058</v>
+        <v>0.2161084056594385</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1800</v>
@@ -2432,19 +2432,19 @@
         <v>1465823</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1394257</v>
+        <v>1393805</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1537092</v>
+        <v>1536011</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.2043253781856116</v>
+        <v>0.2043253781856117</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1943496347582044</v>
+        <v>0.1942865786973302</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2142598840335228</v>
+        <v>0.2141091715098374</v>
       </c>
     </row>
     <row r="28">
